--- a/6_DrawFigure/Fig1b_Output/TransferMatrix_EnsembleMean.xlsx
+++ b/6_DrawFigure/Fig1b_Output/TransferMatrix_EnsembleMean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\4_DrawFigure\Fig1b_Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig1b_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CFDE52-297B-4732-AF2D-0DF15924233D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D366975C-DCEF-4958-86D1-23811893585F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="870" windowWidth="18000" windowHeight="9360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1275" windowWidth="18000" windowHeight="10335" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
@@ -574,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C28" sqref="C28:H33"/>
     </sheetView>
@@ -1177,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DF73B0-2B3A-4750-A315-5905C4297A71}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28:H33"/>
     </sheetView>
   </sheetViews>
@@ -1777,7 +1777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8988C9-F52C-4F58-B137-C5CCAEBEC674}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28:H33"/>
     </sheetView>
   </sheetViews>
@@ -2378,7 +2378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EA4DFC-3DC4-4C6F-A333-4BED15F4505A}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C28" sqref="C28:H33"/>
     </sheetView>
   </sheetViews>

--- a/6_DrawFigure/Fig1b_Output/TransferMatrix_EnsembleMean.xlsx
+++ b/6_DrawFigure/Fig1b_Output/TransferMatrix_EnsembleMean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig1b_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D366975C-DCEF-4958-86D1-23811893585F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74A655D-76B8-4D13-97C7-388E25D4698A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1275" windowWidth="18000" windowHeight="10335" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/6_DrawFigure/Fig1b_Output/TransferMatrix_EnsembleMean.xlsx
+++ b/6_DrawFigure/Fig1b_Output/TransferMatrix_EnsembleMean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig1b_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74A655D-76B8-4D13-97C7-388E25D4698A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75ADD80-B696-48B8-9815-66510EAEB9D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1275" windowWidth="18000" windowHeight="10335" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5010" yWindow="1545" windowWidth="18000" windowHeight="11340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>

--- a/6_DrawFigure/Fig1b_Output/TransferMatrix_EnsembleMean.xlsx
+++ b/6_DrawFigure/Fig1b_Output/TransferMatrix_EnsembleMean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig1b_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75ADD80-B696-48B8-9815-66510EAEB9D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62293B13-F435-498D-AD9F-A68ED44EBA87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="1545" windowWidth="18000" windowHeight="11340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6720" yWindow="2160" windowWidth="37650" windowHeight="15885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
@@ -1177,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DF73B0-2B3A-4750-A315-5905C4297A71}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C28" sqref="C28:H33"/>
     </sheetView>
   </sheetViews>
@@ -2378,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EA4DFC-3DC4-4C6F-A333-4BED15F4505A}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/6_DrawFigure/Fig1b_Output/TransferMatrix_EnsembleMean.xlsx
+++ b/6_DrawFigure/Fig1b_Output/TransferMatrix_EnsembleMean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig1b_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62293B13-F435-498D-AD9F-A68ED44EBA87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37833F7D-E52D-431C-A8C2-12ECAFF7FB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="2160" windowWidth="37650" windowHeight="15885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2910" yWindow="2505" windowWidth="28110" windowHeight="10770" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="16">
   <si>
     <t>1948-2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>Form Title PM_RC_Jarvis represents Aridity Index is calculated by PM-RC-Jarvis derived Etrc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -174,6 +178,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -572,11 +580,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C28" sqref="C28:H33"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -591,7 +599,7 @@
     <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -603,7 +611,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
@@ -612,8 +620,13 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -632,8 +645,17 @@
       <c r="H3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -658,8 +680,17 @@
       <c r="H4" s="2">
         <v>0.18463090062141418</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>2</v>
@@ -682,8 +713,15 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K5" s="6"/>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>3</v>
@@ -706,8 +744,15 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K6" s="6"/>
+      <c r="L6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>4</v>
@@ -730,8 +775,9 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>5</v>
@@ -754,8 +800,9 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>6</v>
@@ -778,8 +825,9 @@
       <c r="H9" s="2">
         <v>81.26153564453125</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K9" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -791,7 +839,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
@@ -800,8 +848,13 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>1</v>
       </c>
@@ -820,8 +873,17 @@
       <c r="H15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
@@ -846,8 +908,17 @@
       <c r="H16" s="1">
         <v>0.31580471992492676</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>2</v>
@@ -870,8 +941,15 @@
       <c r="H17" s="1">
         <v>3.1705457717180252E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K17" s="6"/>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>3</v>
@@ -894,8 +972,15 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K18" s="6"/>
+      <c r="L18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -919,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>5</v>
@@ -943,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>6</v>
@@ -967,7 +1052,7 @@
         <v>84.12640380859375</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
@@ -979,7 +1064,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C26" s="5" t="s">
         <v>7</v>
       </c>
@@ -988,8 +1073,13 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>1</v>
       </c>
@@ -1008,8 +1098,17 @@
       <c r="H27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
@@ -1034,8 +1133,17 @@
       <c r="H28" s="1">
         <v>9.4250015914440155E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>2</v>
@@ -1058,8 +1166,15 @@
       <c r="H29" s="1">
         <v>1.3805548660457134E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K29" s="6"/>
+      <c r="L29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" t="s">
         <v>3</v>
@@ -1082,8 +1197,15 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K30" s="6"/>
+      <c r="L30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>4</v>
@@ -1107,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>5</v>
@@ -1156,7 +1278,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="M26:O26"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A4:A9"/>
@@ -1175,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DF73B0-2B3A-4750-A315-5905C4297A71}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1192,7 +1320,7 @@
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1204,7 +1332,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1213,8 +1341,16 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -1233,8 +1369,17 @@
       <c r="H3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1259,8 +1404,17 @@
       <c r="H4" s="2">
         <v>6.7797236144542694E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>2</v>
@@ -1283,8 +1437,15 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K5" s="6"/>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>3</v>
@@ -1307,8 +1468,15 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K6" s="6"/>
+      <c r="L6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>4</v>
@@ -1331,8 +1499,9 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>5</v>
@@ -1355,8 +1524,9 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>6</v>
@@ -1379,8 +1549,9 @@
       <c r="H9" s="2">
         <v>76.228157043457031</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K9" s="8"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -1392,7 +1563,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
@@ -1401,8 +1572,13 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>1</v>
       </c>
@@ -1421,8 +1597,17 @@
       <c r="H15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
@@ -1447,8 +1632,17 @@
       <c r="H16" s="1">
         <v>0.25373125076293945</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>2</v>
@@ -1471,8 +1665,15 @@
       <c r="H17" s="1">
         <v>1.5062914229929447E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K17" s="6"/>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>3</v>
@@ -1495,8 +1696,15 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K18" s="6"/>
+      <c r="L18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -1520,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>5</v>
@@ -1544,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>6</v>
@@ -1568,7 +1776,7 @@
         <v>81.631576538085938</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
@@ -1580,7 +1788,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C26" s="5" t="s">
         <v>7</v>
       </c>
@@ -1589,8 +1797,13 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>1</v>
       </c>
@@ -1609,8 +1822,17 @@
       <c r="H27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
@@ -1635,8 +1857,17 @@
       <c r="H28" s="1">
         <v>9.238848090171814E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>2</v>
@@ -1659,8 +1890,15 @@
       <c r="H29" s="1">
         <v>2.5875665247440338E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K29" s="6"/>
+      <c r="L29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" t="s">
         <v>3</v>
@@ -1683,8 +1921,15 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K30" s="6"/>
+      <c r="L30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>4</v>
@@ -1708,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>5</v>
@@ -1757,7 +2002,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="K4:K6"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="A28:A33"/>
@@ -1770,15 +2021,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8988C9-F52C-4F58-B137-C5CCAEBEC674}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:H33"/>
+      <selection activeCell="K1" sqref="K1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1793,7 +2045,7 @@
     <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1805,7 +2057,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1814,8 +2066,13 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -1834,8 +2091,17 @@
       <c r="H3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1860,8 +2126,17 @@
       <c r="H4" s="2">
         <v>4.2720172554254532E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>2</v>
@@ -1884,8 +2159,15 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K5" s="6"/>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>3</v>
@@ -1908,8 +2190,15 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K6" s="6"/>
+      <c r="L6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>4</v>
@@ -1932,8 +2221,9 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>5</v>
@@ -1956,8 +2246,9 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>6</v>
@@ -1980,8 +2271,9 @@
       <c r="H9" s="2">
         <v>69.952484130859375</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K9" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -1993,7 +2285,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
@@ -2002,8 +2294,13 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>1</v>
       </c>
@@ -2022,8 +2319,17 @@
       <c r="H15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
@@ -2048,8 +2354,17 @@
       <c r="H16" s="1">
         <v>0.28241601586341858</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>2</v>
@@ -2072,8 +2387,15 @@
       <c r="H17" s="1">
         <v>3.1705457717180252E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K17" s="6"/>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>3</v>
@@ -2096,8 +2418,15 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K18" s="6"/>
+      <c r="L18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -2121,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>5</v>
@@ -2145,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>6</v>
@@ -2169,7 +2498,7 @@
         <v>79.457000732421875</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
@@ -2181,7 +2510,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C26" s="5" t="s">
         <v>7</v>
       </c>
@@ -2190,8 +2519,13 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>1</v>
       </c>
@@ -2210,8 +2544,17 @@
       <c r="H27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
@@ -2236,8 +2579,17 @@
       <c r="H28" s="1">
         <v>0.1156209409236908</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>2</v>
@@ -2260,8 +2612,15 @@
       <c r="H29" s="1">
         <v>7.380291074514389E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K29" s="6"/>
+      <c r="L29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" t="s">
         <v>3</v>
@@ -2284,8 +2643,15 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K30" s="6"/>
+      <c r="L30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>4</v>
@@ -2309,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>5</v>
@@ -2358,7 +2724,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="M26:O26"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="A28:A33"/>
@@ -2376,10 +2748,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EA4DFC-3DC4-4C6F-A333-4BED15F4505A}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2394,7 +2766,7 @@
     <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -2406,7 +2778,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2415,8 +2787,13 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -2435,8 +2812,17 @@
       <c r="H3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -2461,8 +2847,17 @@
       <c r="H4" s="2">
         <v>6.8771094083786011E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>2</v>
@@ -2485,8 +2880,15 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K5" s="6"/>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>3</v>
@@ -2509,8 +2911,15 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K6" s="6"/>
+      <c r="L6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>4</v>
@@ -2533,8 +2942,9 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>5</v>
@@ -2557,8 +2967,9 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>6</v>
@@ -2581,8 +2992,9 @@
       <c r="H9" s="2">
         <v>55.650436401367188</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K9" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -2594,7 +3006,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
@@ -2603,8 +3015,13 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>1</v>
       </c>
@@ -2623,8 +3040,17 @@
       <c r="H15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
@@ -2649,8 +3075,17 @@
       <c r="H16" s="1">
         <v>0.12478189170360565</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>2</v>
@@ -2673,8 +3108,15 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K17" s="6"/>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>3</v>
@@ -2697,8 +3139,15 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K18" s="6"/>
+      <c r="L18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>4</v>
@@ -2722,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>5</v>
@@ -2746,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>6</v>
@@ -2770,7 +3219,7 @@
         <v>71.302604675292969</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
@@ -2782,7 +3231,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C26" s="5" t="s">
         <v>7</v>
       </c>
@@ -2791,8 +3240,13 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>1</v>
       </c>
@@ -2811,8 +3265,17 @@
       <c r="H27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
@@ -2837,8 +3300,17 @@
       <c r="H28" s="1">
         <v>0.1195514127612114</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>2</v>
@@ -2861,8 +3333,15 @@
       <c r="H29" s="1">
         <v>9.9035225808620453E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K29" s="6"/>
+      <c r="L29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" t="s">
         <v>3</v>
@@ -2885,8 +3364,15 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K30" s="6"/>
+      <c r="L30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>4</v>
@@ -2910,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>5</v>
@@ -2959,7 +3445,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="M26:O26"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="A28:A33"/>

--- a/6_DrawFigure/Fig1b_Output/TransferMatrix_EnsembleMean.xlsx
+++ b/6_DrawFigure/Fig1b_Output/TransferMatrix_EnsembleMean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig1b_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37833F7D-E52D-431C-A8C2-12ECAFF7FB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B358782E-804C-48B5-8DA6-2B81E79688FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="2505" windowWidth="28110" windowHeight="10770" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="22845" windowHeight="13740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
@@ -167,6 +167,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -174,14 +178,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -476,94 +476,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -584,7 +584,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1:O1048576"/>
+      <selection pane="topRight" activeCell="M28" sqref="M28:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -600,31 +600,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="M2" s="5" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
@@ -656,7 +656,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -680,18 +680,24 @@
       <c r="H4" s="2">
         <v>0.18463090062141418</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="M4" s="2">
+        <v>96.898941040039063</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2.9116630554199219</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.18463090062141418</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -713,16 +719,22 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="7"/>
       <c r="L5" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="M5" s="2">
+        <v>1.2533823251724243</v>
+      </c>
+      <c r="N5" s="2">
+        <v>98.744819641113281</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -744,16 +756,22 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="7"/>
       <c r="L6" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="M6" s="2">
+        <v>18.657527923583984</v>
+      </c>
+      <c r="N6" s="2">
+        <v>7.9835064709186554E-2</v>
+      </c>
+      <c r="O6" s="2">
+        <v>81.26153564453125</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -775,10 +793,10 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -800,10 +818,10 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="8"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -825,34 +843,34 @@
       <c r="H9" s="2">
         <v>81.26153564453125</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="M14" s="5" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="M14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
@@ -884,7 +902,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B16" t="s">
@@ -908,18 +926,24 @@
       <c r="H16" s="1">
         <v>0.31580471992492676</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>1</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="M16" s="2">
+        <v>97.326072692871094</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2.3581154346466064</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.31580471992492676</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -941,16 +965,22 @@
       <c r="H17" s="1">
         <v>3.1705457717180252E-2</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="7"/>
       <c r="L17" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="M17" s="2">
+        <v>1.5403884649276733</v>
+      </c>
+      <c r="N17" s="2">
+        <v>98.454849243164063</v>
+      </c>
+      <c r="O17" s="2">
+        <v>4.6382923610508442E-3</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -972,16 +1002,22 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="7"/>
       <c r="L18" t="s">
         <v>6</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="M18" s="2">
+        <v>15.828591346740723</v>
+      </c>
+      <c r="N18" s="2">
+        <v>4.4862255454063416E-2</v>
+      </c>
+      <c r="O18" s="2">
+        <v>84.12640380859375</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -1005,7 +1041,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -1029,7 +1065,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -1053,31 +1089,31 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="M26" s="5" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="M26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
@@ -1109,7 +1145,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B28" t="s">
@@ -1133,18 +1169,24 @@
       <c r="H28" s="1">
         <v>9.4250015914440155E-2</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L28" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="M28" s="2">
+        <v>97.343948364257813</v>
+      </c>
+      <c r="N28" s="2">
+        <v>2.5617685317993164</v>
+      </c>
+      <c r="O28" s="2">
+        <v>9.4250015914440155E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -1166,16 +1208,22 @@
       <c r="H29" s="1">
         <v>1.3805548660457134E-2</v>
       </c>
-      <c r="K29" s="6"/>
+      <c r="K29" s="7"/>
       <c r="L29" t="s">
         <v>15</v>
       </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="M29" s="2">
+        <v>1.7564356327056885</v>
+      </c>
+      <c r="N29" s="2">
+        <v>98.2415771484375</v>
+      </c>
+      <c r="O29" s="2">
+        <v>2.0012201275676489E-3</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+      <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -1197,16 +1245,22 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="K30" s="6"/>
+      <c r="K30" s="7"/>
       <c r="L30" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="M30" s="2">
+        <v>18.584320068359375</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.910500168800354</v>
+      </c>
+      <c r="O30" s="2">
+        <v>80.505149841308594</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+      <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>4</v>
       </c>
@@ -1230,7 +1284,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
+      <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>5</v>
       </c>
@@ -1254,7 +1308,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
+      <c r="A33" s="7"/>
       <c r="B33" t="s">
         <v>6</v>
       </c>
@@ -1279,12 +1333,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="M26:O26"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A4:A9"/>
@@ -1294,6 +1342,12 @@
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A25:H25"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="M26:O26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1306,7 +1360,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:O1048576"/>
+      <selection activeCell="M28" sqref="M28:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1321,34 +1375,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="M2" s="5" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
@@ -1380,7 +1434,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -1404,18 +1458,24 @@
       <c r="H4" s="2">
         <v>6.7797236144542694E-2</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="M4" s="2">
+        <v>95.459030151367188</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4.4683713912963867</v>
+      </c>
+      <c r="O4" s="2">
+        <v>6.7797236144542694E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1437,16 +1497,22 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="7"/>
       <c r="L5" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="M5" s="2">
+        <v>1.5230052471160889</v>
+      </c>
+      <c r="N5" s="2">
+        <v>98.475173950195313</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1468,16 +1534,22 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="7"/>
       <c r="L6" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="M6" s="2">
+        <v>23.634014129638672</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.13674023747444153</v>
+      </c>
+      <c r="O6" s="2">
+        <v>76.228157043457031</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -1499,10 +1571,10 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1524,10 +1596,10 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="8"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -1549,34 +1621,34 @@
       <c r="H9" s="2">
         <v>76.228157043457031</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="M14" s="5" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="M14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
@@ -1608,7 +1680,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B16" t="s">
@@ -1632,18 +1704,24 @@
       <c r="H16" s="1">
         <v>0.25373125076293945</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>1</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="M16" s="2">
+        <v>96.33770751953125</v>
+      </c>
+      <c r="N16" s="2">
+        <v>3.4085421562194824</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.25373125076293945</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -1665,16 +1743,22 @@
       <c r="H17" s="1">
         <v>1.5062914229929447E-2</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="7"/>
       <c r="L17" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="M17" s="2">
+        <v>2.0173168182373047</v>
+      </c>
+      <c r="N17" s="2">
+        <v>97.980361938476563</v>
+      </c>
+      <c r="O17" s="2">
+        <v>2.2036018781363964E-3</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -1696,16 +1780,22 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="7"/>
       <c r="L18" t="s">
         <v>6</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="M18" s="2">
+        <v>18.300256729125977</v>
+      </c>
+      <c r="N18" s="2">
+        <v>6.8031921982765198E-2</v>
+      </c>
+      <c r="O18" s="2">
+        <v>81.631576538085938</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -1729,7 +1819,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -1753,7 +1843,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -1777,31 +1867,31 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="M26" s="5" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="M26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
@@ -1833,7 +1923,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B28" t="s">
@@ -1857,18 +1947,24 @@
       <c r="H28" s="1">
         <v>9.238848090171814E-2</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L28" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="M28" s="2">
+        <v>96.630233764648438</v>
+      </c>
+      <c r="N28" s="2">
+        <v>3.2773361206054688</v>
+      </c>
+      <c r="O28" s="2">
+        <v>9.238848090171814E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -1890,16 +1986,22 @@
       <c r="H29" s="1">
         <v>2.5875665247440338E-2</v>
       </c>
-      <c r="K29" s="6"/>
+      <c r="K29" s="7"/>
       <c r="L29" t="s">
         <v>15</v>
       </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="M29" s="2">
+        <v>2.6338834762573242</v>
+      </c>
+      <c r="N29" s="2">
+        <v>97.362281799316406</v>
+      </c>
+      <c r="O29" s="2">
+        <v>3.7508758250623941E-3</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+      <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -1921,16 +2023,22 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="K30" s="6"/>
+      <c r="K30" s="7"/>
       <c r="L30" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="M30" s="2">
+        <v>19.786930084228516</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.91002053022384644</v>
+      </c>
+      <c r="O30" s="2">
+        <v>79.303031921386719</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+      <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>4</v>
       </c>
@@ -1954,7 +2062,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
+      <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>5</v>
       </c>
@@ -1978,7 +2086,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
+      <c r="A33" s="7"/>
       <c r="B33" t="s">
         <v>6</v>
       </c>
@@ -2003,12 +2111,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="K4:K6"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="A28:A33"/>
@@ -2018,6 +2120,12 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="A16:A21"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="K4:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2029,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8988C9-F52C-4F58-B137-C5CCAEBEC674}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:O1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2046,31 +2154,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="M2" s="5" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
@@ -2102,7 +2210,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -2126,18 +2234,24 @@
       <c r="H4" s="2">
         <v>4.2720172554254532E-2</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="M4" s="2">
+        <v>93.589309692382813</v>
+      </c>
+      <c r="N4" s="2">
+        <v>6.3631787300109863</v>
+      </c>
+      <c r="O4" s="2">
+        <v>4.2720172554254532E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -2159,16 +2273,22 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="7"/>
       <c r="L5" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="M5" s="2">
+        <v>3.2368612289428711</v>
+      </c>
+      <c r="N5" s="2">
+        <v>96.761322021484375</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -2190,16 +2310,22 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="7"/>
       <c r="L6" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="M6" s="2">
+        <v>29.865678787231445</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.18073850870132446</v>
+      </c>
+      <c r="O6" s="2">
+        <v>69.952484130859375</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -2221,10 +2347,10 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -2246,10 +2372,10 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="8"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -2271,34 +2397,34 @@
       <c r="H9" s="2">
         <v>69.952484130859375</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="M14" s="5" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="M14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
@@ -2330,7 +2456,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B16" t="s">
@@ -2354,18 +2480,24 @@
       <c r="H16" s="1">
         <v>0.28241601586341858</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>1</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="M16" s="2">
+        <v>94.928367614746094</v>
+      </c>
+      <c r="N16" s="2">
+        <v>4.7891697883605957</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.28241601586341858</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -2387,16 +2519,22 @@
       <c r="H17" s="1">
         <v>3.1705457717180252E-2</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="7"/>
       <c r="L17" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="M17" s="2">
+        <v>4.2853975296020508</v>
+      </c>
+      <c r="N17" s="2">
+        <v>95.709938049316406</v>
+      </c>
+      <c r="O17" s="2">
+        <v>4.6382923610508442E-3</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -2418,16 +2556,22 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="7"/>
       <c r="L18" t="s">
         <v>6</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="M18" s="2">
+        <v>20.429224014282227</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.11361692100763321</v>
+      </c>
+      <c r="O18" s="2">
+        <v>79.457000732421875</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -2451,7 +2595,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -2475,7 +2619,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -2499,31 +2643,31 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="M26" s="5" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="M26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
@@ -2555,7 +2699,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B28" t="s">
@@ -2579,18 +2723,24 @@
       <c r="H28" s="1">
         <v>0.1156209409236908</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L28" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="M28" s="2">
+        <v>95.618995666503906</v>
+      </c>
+      <c r="N28" s="2">
+        <v>4.2653255462646484</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.1156209409236908</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -2612,16 +2762,22 @@
       <c r="H29" s="1">
         <v>7.380291074514389E-2</v>
       </c>
-      <c r="K29" s="6"/>
+      <c r="K29" s="7"/>
       <c r="L29" t="s">
         <v>15</v>
       </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="M29" s="2">
+        <v>5.2479581832885742</v>
+      </c>
+      <c r="N29" s="2">
+        <v>94.7413330078125</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1.0698297992348671E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+      <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -2643,16 +2799,22 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="K30" s="6"/>
+      <c r="K30" s="7"/>
       <c r="L30" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="M30" s="2">
+        <v>21.220125198364258</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.88981938362121582</v>
+      </c>
+      <c r="O30" s="2">
+        <v>77.890037536621094</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+      <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>4</v>
       </c>
@@ -2676,7 +2838,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
+      <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>5</v>
       </c>
@@ -2700,7 +2862,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
+      <c r="A33" s="7"/>
       <c r="B33" t="s">
         <v>6</v>
       </c>
@@ -2725,12 +2887,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="M26:O26"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="A28:A33"/>
@@ -2740,6 +2896,12 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="A16:A21"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="M26:O26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2750,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EA4DFC-3DC4-4C6F-A333-4BED15F4505A}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:O1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2767,31 +2929,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="M2" s="5" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
@@ -2823,7 +2985,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -2847,18 +3009,24 @@
       <c r="H4" s="2">
         <v>6.8771094083786011E-3</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="M4" s="2">
+        <v>91.8221435546875</v>
+      </c>
+      <c r="N4" s="2">
+        <v>8.1661567687988281</v>
+      </c>
+      <c r="O4" s="2">
+        <v>6.8771094083786011E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -2880,16 +3048,22 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="7"/>
       <c r="L5" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="M5" s="2">
+        <v>3.2374963760375977</v>
+      </c>
+      <c r="N5" s="2">
+        <v>96.760734558105469</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -2911,16 +3085,22 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="7"/>
       <c r="L6" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="M6" s="2">
+        <v>43.546745300292969</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.80177599191665649</v>
+      </c>
+      <c r="O6" s="2">
+        <v>55.650436401367188</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -2942,10 +3122,10 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -2967,10 +3147,10 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="8"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -2992,34 +3172,34 @@
       <c r="H9" s="2">
         <v>55.650436401367188</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="M14" s="5" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="M14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
@@ -3051,7 +3231,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B16" t="s">
@@ -3075,18 +3255,24 @@
       <c r="H16" s="1">
         <v>0.12478189170360565</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>1</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="M16" s="2">
+        <v>93.783737182617188</v>
+      </c>
+      <c r="N16" s="2">
+        <v>6.0914225578308105</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.12478189170360565</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -3108,16 +3294,22 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="7"/>
       <c r="L17" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="M17" s="2">
+        <v>4.632225513458252</v>
+      </c>
+      <c r="N17" s="2">
+        <v>95.367713928222656</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -3139,16 +3331,22 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="7"/>
       <c r="L18" t="s">
         <v>6</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="M18" s="2">
+        <v>28.583633422851563</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.11361692100763321</v>
+      </c>
+      <c r="O18" s="2">
+        <v>71.302604675292969</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -3172,7 +3370,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -3196,7 +3394,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -3220,31 +3418,31 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="M26" s="5" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="M26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
@@ -3276,7 +3474,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B28" t="s">
@@ -3300,18 +3498,24 @@
       <c r="H28" s="1">
         <v>0.1195514127612114</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L28" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="M28" s="2">
+        <v>95.063369750976563</v>
+      </c>
+      <c r="N28" s="2">
+        <v>4.8170328140258789</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.1195514127612114</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -3333,16 +3537,22 @@
       <c r="H29" s="1">
         <v>9.9035225808620453E-2</v>
       </c>
-      <c r="K29" s="6"/>
+      <c r="K29" s="7"/>
       <c r="L29" t="s">
         <v>15</v>
       </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="M29" s="2">
+        <v>5.9967570304870605</v>
+      </c>
+      <c r="N29" s="2">
+        <v>93.988845825195313</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1.4355913735926151E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+      <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -3364,16 +3574,22 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="K30" s="6"/>
+      <c r="K30" s="7"/>
       <c r="L30" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="M30" s="2">
+        <v>26.297674179077148</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1.0368701219558716</v>
+      </c>
+      <c r="O30" s="2">
+        <v>72.665390014648438</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+      <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>4</v>
       </c>
@@ -3397,7 +3613,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
+      <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>5</v>
       </c>
@@ -3421,7 +3637,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
+      <c r="A33" s="7"/>
       <c r="B33" t="s">
         <v>6</v>
       </c>
@@ -3446,12 +3662,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="M26:O26"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="A28:A33"/>
@@ -3461,6 +3671,12 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="A16:A21"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="M26:O26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
